--- a/statistics/HistoricalDistanceData/historical_distance/Q3789908-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q3789908-en.xlsx
@@ -31,21 +31,21 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Apple axes annual Apple Music Festival in London after 10 years</t>
+  </si>
+  <si>
     <t>Apple Music on Twitter</t>
   </si>
   <si>
-    <t>Apple axes annual Apple Music Festival in London after 10 years</t>
-  </si>
-  <si>
     <t>iTunes Festival returns to Channel 4</t>
   </si>
   <si>
+    <t>2017-09-04T17:37:00UTC</t>
+  </si>
+  <si>
     <t>2016-08-24T00:00:00UTC</t>
   </si>
   <si>
-    <t>2017-09-04T17:37:00UTC</t>
-  </si>
-  <si>
     <t>2012-05-19T00:00:00UTC</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.musicbusinessworldwide.com/apple-axes-annual-apple-music-festival-london-10-years/</t>
+  </si>
+  <si>
     <t>https://twitter.com/AppleMusic/status/768697064884535296</t>
-  </si>
-  <si>
-    <t>https://www.musicbusinessworldwide.com/apple-axes-annual-apple-music-festival-london-10-years/</t>
   </si>
   <si>
     <t>http://hangout.altsounds.com/news/147971-itunes-festival-returns-channel-4-a.html</t>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1331</v>
+        <v>1707</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1707</v>
+        <v>1331</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
